--- a/console/tests/Fixtures/import/contacts-map-columns.xlsx
+++ b/console/tests/Fixtures/import/contacts-map-columns.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="contacts-map-columns" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="contacts-map-columns" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -136,7 +136,7 @@
     <t xml:space="preserve">03.15.35.41.79</t>
   </si>
   <si>
-    <t xml:space="preserve">+33 15 35 41 79</t>
+    <t xml:space="preserve">+33 3 15 35 41 79</t>
   </si>
   <si>
     <t xml:space="preserve">https://facebook.com/FabienMiron</t>
@@ -212,6 +212,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -271,12 +272,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -292,611 +297,717 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:AB7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L18" activeCellId="0" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="12.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="20.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="15.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="13.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="16.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="29.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="26.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="27.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="13.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="14.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="18" style="0" width="17.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="14.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="11.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="14.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="23.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="18.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="18.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="16.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="15.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="11.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="7.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="30.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="15.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="16.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="14.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="13.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="12.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="20.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="15.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="13.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="16.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="29.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="26.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="27.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="13.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="14.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="18" style="1" width="17.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="14.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="11.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="14.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="23.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="18.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="1" width="18.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="16.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="15.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="11.99"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="0" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="0" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="0" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="0" t="s">
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="0" t="s">
+      <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="0" t="s">
+      <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="0" t="s">
+      <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="0" t="s">
+      <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="0" t="s">
+      <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="0" t="s">
+      <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="0" t="s">
+      <c r="AB1" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="1" t="n">
+      <c r="G2" s="2" t="n">
         <v>22531</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="I2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="0" t="s">
+      <c r="J2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="L2" s="0" t="s">
+      <c r="K2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="M2" s="0" t="s">
+      <c r="M2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="0" t="s">
+      <c r="N2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="O2" s="0" t="s">
+      <c r="O2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="P2" s="0" t="s">
+      <c r="P2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Q2" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="R2" s="0" t="s">
+      <c r="Q2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="T2" s="0" t="n">
+      <c r="T2" s="1" t="n">
         <v>21200</v>
       </c>
-      <c r="U2" s="0" t="s">
+      <c r="U2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="V2" s="0" t="s">
+      <c r="V2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="W2" s="0" t="n">
+      <c r="W2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="X2" s="0" t="n">
+      <c r="X2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="Z2" s="0" t="s">
+      <c r="Z2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AA2" s="0" t="s">
+      <c r="AA2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AB2" s="0" t="s">
+      <c r="AB2" s="1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="1" t="n">
+      <c r="G3" s="2" t="n">
         <v>22531</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="H3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="I3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J3" s="0" t="s">
+      <c r="J3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="K3" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="L3" s="0" t="s">
+      <c r="K3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="M3" s="0" t="s">
+      <c r="M3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="N3" s="0" t="s">
+      <c r="N3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="O3" s="0" t="s">
+      <c r="O3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="P3" s="0" t="s">
+      <c r="P3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Q3" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="R3" s="0" t="s">
+      <c r="Q3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="T3" s="0" t="n">
+      <c r="T3" s="1" t="n">
         <v>21200</v>
       </c>
-      <c r="U3" s="0" t="s">
+      <c r="U3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="V3" s="0" t="s">
+      <c r="V3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="W3" s="0" t="n">
+      <c r="W3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="X3" s="0" t="n">
+      <c r="X3" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="Z3" s="0" t="s">
+      <c r="Z3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AA3" s="0" t="s">
+      <c r="AA3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AB3" s="0" t="s">
+      <c r="AB3" s="1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="F4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="1" t="n">
+      <c r="G4" s="2" t="n">
         <v>22531</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="H4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I4" s="0" t="s">
+      <c r="I4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J4" s="0" t="s">
+      <c r="J4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="K4" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="L4" s="0" t="s">
+      <c r="K4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="M4" s="0" t="s">
+      <c r="M4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="N4" s="0" t="s">
+      <c r="N4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="O4" s="0" t="s">
+      <c r="O4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="P4" s="0" t="s">
+      <c r="P4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Q4" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="R4" s="0" t="s">
+      <c r="Q4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="T4" s="0" t="n">
+      <c r="T4" s="1" t="n">
         <v>21200</v>
       </c>
-      <c r="U4" s="0" t="s">
+      <c r="U4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="V4" s="0" t="s">
+      <c r="V4" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="W4" s="0" t="n">
+      <c r="W4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="X4" s="0" t="n">
+      <c r="X4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="Z4" s="0" t="s">
+      <c r="Z4" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AA4" s="0" t="s">
+      <c r="AA4" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AB4" s="0" t="s">
+      <c r="AB4" s="1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="F5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="1" t="n">
+      <c r="G5" s="2" t="n">
         <v>22531</v>
       </c>
-      <c r="H5" s="0" t="s">
+      <c r="H5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="0" t="s">
+      <c r="I5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J5" s="0" t="s">
+      <c r="J5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="K5" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="L5" s="0" t="s">
+      <c r="K5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="M5" s="0" t="s">
+      <c r="M5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="N5" s="0" t="s">
+      <c r="N5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="O5" s="0" t="s">
+      <c r="O5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="P5" s="0" t="s">
+      <c r="P5" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Q5" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="R5" s="0" t="s">
+      <c r="Q5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="T5" s="0" t="n">
+      <c r="T5" s="1" t="n">
         <v>21200</v>
       </c>
-      <c r="U5" s="0" t="s">
+      <c r="U5" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="V5" s="0" t="s">
+      <c r="V5" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="W5" s="0" t="n">
+      <c r="W5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="X5" s="0" t="n">
+      <c r="X5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="Z5" s="0" t="s">
+      <c r="Z5" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AA5" s="0" t="s">
+      <c r="AA5" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AB5" s="0" t="s">
+      <c r="AB5" s="1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="F6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="1" t="n">
+      <c r="G6" s="2" t="n">
         <v>22531</v>
       </c>
-      <c r="H6" s="0" t="s">
+      <c r="H6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="0" t="s">
+      <c r="I6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J6" s="0" t="s">
+      <c r="J6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="K6" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="L6" s="0" t="s">
+      <c r="K6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="M6" s="0" t="s">
+      <c r="M6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="N6" s="0" t="s">
+      <c r="N6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="O6" s="0" t="s">
+      <c r="O6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="P6" s="0" t="s">
+      <c r="P6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Q6" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="R6" s="0" t="s">
+      <c r="Q6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="T6" s="0" t="n">
+      <c r="T6" s="1" t="n">
         <v>21200</v>
       </c>
-      <c r="U6" s="0" t="s">
+      <c r="U6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="V6" s="0" t="s">
+      <c r="V6" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="W6" s="0" t="n">
+      <c r="W6" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="X6" s="0" t="n">
+      <c r="X6" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="Z6" s="0" t="s">
+      <c r="Z6" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AA6" s="0" t="s">
+      <c r="AA6" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AB6" s="0" t="s">
+      <c r="AB6" s="1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="0" t="s">
+      <c r="F7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="1" t="n">
+      <c r="G7" s="2" t="n">
         <v>22531</v>
       </c>
-      <c r="H7" s="0" t="s">
+      <c r="H7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I7" s="0" t="s">
+      <c r="I7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J7" s="0" t="s">
+      <c r="J7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="K7" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="L7" s="0" t="s">
+      <c r="K7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="M7" s="0" t="s">
+      <c r="M7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="N7" s="0" t="s">
+      <c r="N7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="O7" s="0" t="s">
+      <c r="O7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="P7" s="0" t="s">
+      <c r="P7" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Q7" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="R7" s="0" t="s">
+      <c r="Q7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="T7" s="0" t="n">
+      <c r="T7" s="1" t="n">
         <v>21200</v>
       </c>
-      <c r="U7" s="0" t="s">
+      <c r="U7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="V7" s="0" t="s">
+      <c r="V7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="W7" s="0" t="n">
+      <c r="W7" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="X7" s="0" t="n">
+      <c r="X7" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="Z7" s="0" t="s">
+      <c r="Z7" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AA7" s="0" t="s">
+      <c r="AA7" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AB7" s="0" t="s">
+      <c r="AB7" s="1" t="s">
         <v>48</v>
       </c>
     </row>
